--- a/hw/hw3/exp_outcome/exp_outcome.xlsx
+++ b/hw/hw3/exp_outcome/exp_outcome.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mygodimatomato/Library/CloudStorage/Dropbox/Study/NTHU/Master_degree/112-1/Parallel Programming/hw/hw3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mygodimatomato/Library/CloudStorage/Dropbox/Study/NTHU/Master_degree/112-1/Parallel Programming/hw/hw3/exp_outcome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFC5DAF-5B59-274B-A75B-5C8C739B4450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44A30E9-6887-AF47-929F-FA45906A26DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="17100" windowHeight="21380" xr2:uid="{2C7AD639-61CF-FC4B-93EB-1F1047B50310}"/>
+    <workbookView xWindow="17100" yWindow="860" windowWidth="17100" windowHeight="21380" activeTab="1" xr2:uid="{2C7AD639-61CF-FC4B-93EB-1F1047B50310}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>testcase</t>
   </si>
@@ -116,19 +117,154 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>2741528576/0.153</t>
+  </si>
+  <si>
+    <t>1545204224/0.162</t>
+  </si>
+  <si>
+    <t>947042432/0.161</t>
+  </si>
+  <si>
+    <t>650040032/0.163</t>
+  </si>
+  <si>
+    <t>blocking_factor</t>
+  </si>
+  <si>
+    <t>GOPS</t>
+  </si>
+  <si>
+    <t>blocking factor</t>
+  </si>
+  <si>
+    <t>global memory load throughput</t>
+  </si>
+  <si>
+    <t>global memory store throughput</t>
+  </si>
+  <si>
+    <t>shared memory load throughput</t>
+  </si>
+  <si>
+    <t>shared memory store throughput</t>
+  </si>
+  <si>
+    <r>
+      <t>dim3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBFBDB6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFFFB454"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>num_threads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBFBDB6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(BLOCK_SIZE, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFD2A6FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFF29668"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBFBDB6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>BLOCK_SIZE);</t>
+    </r>
+  </si>
+  <si>
+    <t>dim3 num_threads(BLOCK_SIZE, 16);</t>
+  </si>
+  <si>
+    <t>dim3 num_threads(BLOCK_SIZE, BLOCK_SIZE/4);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FFBFBDB6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FFFF8F40"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FFFFB454"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FFD2A6FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FFF29668"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="17"/>
+      <color rgb="FFACB6BF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,8 +287,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,6 +306,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>156486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A49F90AF-7A22-5821-4B17-B321621B6CA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="7264400"/>
+          <a:ext cx="7772400" cy="3204486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>55885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA37FB1-E461-C8F5-5F8F-FA65F357B667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="3606800"/>
+          <a:ext cx="7772400" cy="3103885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>67884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD63DF0-08FC-E1F0-D8C4-C3881DBFF42B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="279400"/>
+          <a:ext cx="7772400" cy="3115884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,18 +742,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E2F9ED-CDB3-0C42-83C4-2BBDDD246852}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -596,7 +872,218 @@
         <v>5780158</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>1360</v>
+      </c>
+      <c r="C21">
+        <v>680</v>
+      </c>
+      <c r="D21">
+        <v>255</v>
+      </c>
+      <c r="E21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>1293</v>
+      </c>
+      <c r="C22">
+        <v>431</v>
+      </c>
+      <c r="D22">
+        <v>323</v>
+      </c>
+      <c r="E22">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>2189</v>
+      </c>
+      <c r="C23">
+        <v>182</v>
+      </c>
+      <c r="D23">
+        <v>273</v>
+      </c>
+      <c r="E23">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>2491</v>
+      </c>
+      <c r="C24">
+        <v>103</v>
+      </c>
+      <c r="D24">
+        <v>155</v>
+      </c>
+      <c r="E24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>255</v>
+      </c>
+      <c r="C27">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>323</v>
+      </c>
+      <c r="C28">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>273</v>
+      </c>
+      <c r="C29">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>64</v>
+      </c>
+      <c r="B30">
+        <v>155</v>
+      </c>
+      <c r="C30">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC58D7-49AB-B742-B878-98E2DAC021F7}">
+  <dimension ref="B1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>